--- a/JKJ/mandarin/data/predict_consume.xlsx
+++ b/JKJ/mandarin/data/predict_consume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\JKJ\mandarin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62040E30-74E8-4FF8-A329-D624F4594BAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0CDDD-F849-4839-9F89-3E558A086DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="8145" xr2:uid="{BBEE08AD-AB3E-4102-9CCC-357584992340}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,56 @@
   </si>
   <si>
     <t>1인당 연간소비량(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원/10kg, 명목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdp 디플레이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도매가격 명목-&gt;실질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소매가격 명목-&gt;실질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘를.. 디비에 넣을까낭? 냠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 정확도 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 변수 발굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연간지표별</t>
+  </si>
+  <si>
+    <t>GDP 디플레이터 (2015=100)</t>
+  </si>
+  <si>
+    <t>gdp_deflator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +148,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +212,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96830FA-382B-4C1F-B170-D9D270559A3D}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,7 +545,7 @@
     <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +573,11 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1985</v>
       </c>
@@ -530,7 +595,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1986</v>
       </c>
@@ -545,7 +610,7 @@
         <v>33.854999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -560,7 +625,7 @@
         <v>47.415999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1988</v>
       </c>
@@ -575,7 +640,7 @@
         <v>45.652000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1989</v>
       </c>
@@ -592,7 +657,7 @@
         <v>49.12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1990</v>
       </c>
@@ -610,7 +675,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1991</v>
       </c>
@@ -625,7 +690,7 @@
         <v>77.317999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1992</v>
       </c>
@@ -642,7 +707,7 @@
         <v>70.594999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -659,8 +724,11 @@
       <c r="H10">
         <v>26996.363600000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>55.195999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1994</v>
       </c>
@@ -677,8 +745,11 @@
       <c r="H11">
         <v>33604.5671</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>59.698999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1995</v>
       </c>
@@ -700,8 +771,11 @@
       <c r="I12">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>63.893000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1996</v>
       </c>
@@ -722,8 +796,11 @@
       <c r="H13">
         <v>47421.395100000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>66.519000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1997</v>
       </c>
@@ -744,8 +821,11 @@
       <c r="H14">
         <v>52751.275000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>69.182000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -770,8 +850,11 @@
       <c r="H15">
         <v>57194.372699999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>72.278999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -796,8 +879,11 @@
       <c r="H16">
         <v>58382.741999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>71.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -825,8 +911,11 @@
       <c r="I17">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>72.119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2001</v>
       </c>
@@ -851,8 +940,11 @@
       <c r="H18">
         <v>68150.289600000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>74.628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -880,8 +972,11 @@
       <c r="I19">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>76.891999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2003</v>
       </c>
@@ -909,8 +1004,11 @@
       <c r="I20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>79.543999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -938,8 +1036,11 @@
       <c r="I21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>82.031999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -967,8 +1068,11 @@
       <c r="I22">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>82.887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2006</v>
       </c>
@@ -996,8 +1100,11 @@
       <c r="I23">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>82.701999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2007</v>
       </c>
@@ -1025,8 +1132,11 @@
       <c r="I24">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>84.701999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -1054,8 +1164,11 @@
       <c r="I25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>87.096000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -1083,8 +1196,11 @@
       <c r="I26">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>90.239000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -1112,8 +1228,11 @@
       <c r="I27">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>92.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -1141,8 +1260,11 @@
       <c r="I28">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>93.897999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -1170,8 +1292,11 @@
       <c r="I29">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>95.072999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -1199,8 +1324,11 @@
       <c r="I30">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>96.042000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -1228,8 +1356,11 @@
       <c r="I31">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>96.912999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -1257,8 +1388,11 @@
       <c r="I32">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2016</v>
       </c>
@@ -1286,8 +1420,11 @@
       <c r="I33">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>101.986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2017</v>
       </c>
@@ -1315,8 +1452,11 @@
       <c r="I34">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>104.253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -1344,8 +1484,11 @@
       <c r="I35">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>104.744</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -1365,50 +1508,485 @@
         <v>146.82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F626C4-4FAB-4189-9B82-D12779792925}">
-  <dimension ref="B2:I2"/>
+  <dimension ref="A2:AA51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>1993</v>
+      </c>
+      <c r="C22">
+        <v>1994</v>
+      </c>
+      <c r="D22">
+        <v>1995</v>
+      </c>
+      <c r="E22">
+        <v>1996</v>
+      </c>
+      <c r="F22">
+        <v>1997</v>
+      </c>
+      <c r="G22">
+        <v>1998</v>
+      </c>
+      <c r="H22">
+        <v>1999</v>
+      </c>
+      <c r="I22">
+        <v>2000</v>
+      </c>
+      <c r="J22">
+        <v>2001</v>
+      </c>
+      <c r="K22">
+        <v>2002</v>
+      </c>
+      <c r="L22">
+        <v>2003</v>
+      </c>
+      <c r="M22">
+        <v>2004</v>
+      </c>
+      <c r="N22">
+        <v>2005</v>
+      </c>
+      <c r="O22">
+        <v>2006</v>
+      </c>
+      <c r="P22">
+        <v>2007</v>
+      </c>
+      <c r="Q22">
+        <v>2008</v>
+      </c>
+      <c r="R22">
+        <v>2009</v>
+      </c>
+      <c r="S22">
+        <v>2010</v>
+      </c>
+      <c r="T22">
+        <v>2011</v>
+      </c>
+      <c r="U22">
+        <v>2012</v>
+      </c>
+      <c r="V22">
+        <v>2013</v>
+      </c>
+      <c r="W22">
+        <v>2014</v>
+      </c>
+      <c r="X22">
+        <v>2015</v>
+      </c>
+      <c r="Y22">
+        <v>2016</v>
+      </c>
+      <c r="Z22">
+        <v>2017</v>
+      </c>
+      <c r="AA22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>55.195999999999998</v>
+      </c>
+      <c r="C23">
+        <v>59.698999999999998</v>
+      </c>
+      <c r="D23">
+        <v>63.893000000000001</v>
+      </c>
+      <c r="E23">
+        <v>66.519000000000005</v>
+      </c>
+      <c r="F23">
+        <v>69.182000000000002</v>
+      </c>
+      <c r="G23">
+        <v>72.278999999999996</v>
+      </c>
+      <c r="H23">
+        <v>71.39</v>
+      </c>
+      <c r="I23">
+        <v>72.119</v>
+      </c>
+      <c r="J23">
+        <v>74.628</v>
+      </c>
+      <c r="K23">
+        <v>76.891999999999996</v>
+      </c>
+      <c r="L23">
+        <v>79.543999999999997</v>
+      </c>
+      <c r="M23">
+        <v>82.031999999999996</v>
+      </c>
+      <c r="N23">
+        <v>82.887</v>
+      </c>
+      <c r="O23">
+        <v>82.701999999999998</v>
+      </c>
+      <c r="P23">
+        <v>84.701999999999998</v>
+      </c>
+      <c r="Q23">
+        <v>87.096000000000004</v>
+      </c>
+      <c r="R23">
+        <v>90.239000000000004</v>
+      </c>
+      <c r="S23">
+        <v>92.71</v>
+      </c>
+      <c r="T23">
+        <v>93.897999999999996</v>
+      </c>
+      <c r="U23">
+        <v>95.072999999999993</v>
+      </c>
+      <c r="V23">
+        <v>96.042000000000002</v>
+      </c>
+      <c r="W23">
+        <v>96.912999999999997</v>
+      </c>
+      <c r="X23">
+        <v>100</v>
+      </c>
+      <c r="Y23">
+        <v>101.986</v>
+      </c>
+      <c r="Z23">
+        <v>104.253</v>
+      </c>
+      <c r="AA23">
+        <v>104.744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1993</v>
+      </c>
+      <c r="D26">
+        <v>55.195999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1994</v>
+      </c>
+      <c r="D27">
+        <v>59.698999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1995</v>
+      </c>
+      <c r="D28">
+        <v>63.893000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1996</v>
+      </c>
+      <c r="D29">
+        <v>66.519000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1997</v>
+      </c>
+      <c r="D30">
+        <v>69.182000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>1998</v>
+      </c>
+      <c r="D31">
+        <v>72.278999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1999</v>
+      </c>
+      <c r="D32">
+        <v>71.39</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2000</v>
+      </c>
+      <c r="D33">
+        <v>72.119</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>2001</v>
+      </c>
+      <c r="D34">
+        <v>74.628</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>2002</v>
+      </c>
+      <c r="D35">
+        <v>76.891999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>2003</v>
+      </c>
+      <c r="D36">
+        <v>79.543999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>2004</v>
+      </c>
+      <c r="D37">
+        <v>82.031999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>2005</v>
+      </c>
+      <c r="D38">
+        <v>82.887</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>2006</v>
+      </c>
+      <c r="D39">
+        <v>82.701999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>2007</v>
+      </c>
+      <c r="D40">
+        <v>84.701999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>2008</v>
+      </c>
+      <c r="D41">
+        <v>87.096000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>2009</v>
+      </c>
+      <c r="D42">
+        <v>90.239000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>2010</v>
+      </c>
+      <c r="D43">
+        <v>92.71</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>2011</v>
+      </c>
+      <c r="D44">
+        <v>93.897999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>2012</v>
+      </c>
+      <c r="D45">
+        <v>95.072999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>2013</v>
+      </c>
+      <c r="D46">
+        <v>96.042000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>2014</v>
+      </c>
+      <c r="D47">
+        <v>96.912999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>2015</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>2016</v>
+      </c>
+      <c r="D49">
+        <v>101.986</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>2017</v>
+      </c>
+      <c r="D50">
+        <v>104.253</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>2018</v>
+      </c>
+      <c r="D51">
+        <v>104.744</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +2000,7 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
